--- a/Reports/estimators_export.xlsx
+++ b/Reports/estimators_export.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,22 +446,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>GC</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Simon</t>
+          <t>Gary</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Wade</t>
+          <t>Cook</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C:\Python Automation\Keno-bi\Estimators\Simon Wade</t>
+          <t>C:\Python Automation\Keno-bi\Estimators\Gary Cook</t>
         </is>
       </c>
     </row>
@@ -484,50 +484,6 @@
       <c r="D3" t="inlineStr">
         <is>
           <t>C:\Python Automation\Keno-bi\Estimators\Andrei Polin</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>GC</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Gary</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Cook</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>C:\Python Automation\Keno-bi\Estimators\Gary Cook</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>PK</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pardip</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Kandola</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>C:\Python Automation\Keno-bi\Estimators\Pardip Kandola</t>
         </is>
       </c>
     </row>
